--- a/Datasets/Science_questions.xlsx
+++ b/Datasets/Science_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\minor-project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C02AA84C-FF4F-46F1-9D98-CFFF1A954057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF17B71-4161-4006-A639-C0F0750E319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Science_questions" sheetId="1" r:id="rId1"/>
@@ -595,9 +595,6 @@
     <t>Tungsten</t>
   </si>
   <si>
-    <t>Two wires each of resistance r ohms are joined in parallel. Their equivalent resistance will be:</t>
-  </si>
-  <si>
     <t>An electric bulb is rated 220 volt and 100 watts, the power consumed by it when operated on 110 volt is:</t>
   </si>
   <si>
@@ -730,22 +727,25 @@
     <t>Release of OH– ions</t>
   </si>
   <si>
-    <t>2rΩ</t>
-  </si>
-  <si>
-    <t>rΩ/2</t>
-  </si>
-  <si>
-    <t>2Ω/r</t>
-  </si>
-  <si>
-    <t>ZeroΩ</t>
+    <t>2r ohm</t>
+  </si>
+  <si>
+    <t>r/2 ohm</t>
+  </si>
+  <si>
+    <t>2/r ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zero ohm</t>
+  </si>
+  <si>
+    <t>Two wires each of resistance 'r' ohms are joined in parallel. Their equivalent resistance will be:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1585,20 +1585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1678,7 +1678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>99</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>114</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>119</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>127</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>131</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>136</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>139</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>149</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>154</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>164</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>169</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>173</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>178</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>182</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>186</v>
       </c>
@@ -2418,138 +2418,138 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="F46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>137</v>
@@ -2558,38 +2558,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>137</v>
@@ -2598,21 +2598,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
